--- a/daily_matches/job_matches_2026-02-26.xlsx
+++ b/daily_matches/job_matches_2026-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,270 +473,270 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sr Machine Learning Engineer</t>
+          <t>Enterprise AI Architect</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Walt Disney Company</t>
+          <t>Radwell International</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Willingboro, NJ, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, RAG, PyTorch, BigQuery, Kinesis, MLflow, Docker, Kubernetes, CI/CD, Git</t>
+          <t>AI Engineer, LangChain, RAG, Prompt Engineering, Azure ML, Synapse, CI/CD, Git, Databricks, PostgreSQL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=15f2e018b3b0d55e</t>
+          <t>https://www.indeed.com/viewjob?jk=291c96af0e7cea02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CCaaS Integration Engineer</t>
+          <t>Analytics Engineer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services (TCS)</t>
+          <t>SRS Distribution</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Philadelphia, PA, US USA</t>
+          <t>McKinney, TX, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>16.7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LangChain, RAG, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Kinesis, FastAPI, CI/CD</t>
+          <t>Data Scientist, RAG, Redshift, BigQuery, Snowflake, BigQuery, Redshift, Hadoop, Tableau, Power BI</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=da6da8715ca8e326</t>
+          <t>https://www.indeed.com/viewjob?jk=e9fcb451d7086751</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Application Developer III, Platform Engineering</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SolidLine Media</t>
+          <t>Herbalife</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Torrance, CA, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.9</v>
+        <v>16.7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Data Scientist, Redshift, BigQuery, Data Lake, Docker, Kubernetes, Apache Airflow, CI/CD, Git, Snowflake</t>
+          <t>RAG, S3, Docker, Kubernetes, CI/CD, Git, PostgreSQL, MySQL, MongoDB, NoSQL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8e8185f66fc8c270</t>
+          <t>https://www.indeed.com/viewjob?jk=116acc2ab05b269d</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Applied AI Engineer</t>
+          <t>Senior Engineer, Interactive Voice Response - AI/ML</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Humana</t>
+          <t>GEICO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Frisco, TX, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17.8</v>
+        <v>12.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Generative AI, LangChain, RAG, LLaMA, Gemini, Copilot, Pinecone, Prompt Engineering</t>
+          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, NoSQL, Python, SQL, R, Java</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f5a907c0dd70f69f</t>
+          <t>https://www.indeed.com/viewjob?jk=47d9b666a9f5e183</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior Applied AI Engineer</t>
+          <t>Senior Engineer, Interactive Voice Response - AI/ML</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Humana</t>
+          <t>GEICO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tampa, FL, US USA</t>
+          <t>Chevy Chase, MD, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17.8</v>
+        <v>12.2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Generative AI, LangChain, RAG, LLaMA, Gemini, Copilot, Pinecone, Prompt Engineering</t>
+          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, NoSQL, Python, SQL, R, Java</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=07263741ab42161d</t>
+          <t>https://www.indeed.com/viewjob?jk=6901a904c6353295</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Senior Applied AI Engineer</t>
+          <t>Senior Engineer, Interactive Voice Response - AI/ML</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Humana</t>
+          <t>GEICO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NY, US USA</t>
+          <t>Palo Alto, CA, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.8</v>
+        <v>12.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Generative AI, LangChain, RAG, LLaMA, Gemini, Copilot, Pinecone, Prompt Engineering</t>
+          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, NoSQL, Python, SQL, R, Java</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=310e99143d46b211</t>
+          <t>https://www.indeed.com/viewjob?jk=e924304b2daed071</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Senior Applied AI Engineer</t>
+          <t>Senior Engineer, Interactive Voice Response - AI/ML</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Humana</t>
+          <t>GEICO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Washington, DC, US USA</t>
+          <t>Chevy Chase, MD, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17.8</v>
+        <v>12.2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Generative AI, LangChain, RAG, LLaMA, Gemini, Copilot, Pinecone, Prompt Engineering</t>
+          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, NoSQL, Python, SQL, R, Java</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=949bb59c0562a243</t>
+          <t>https://www.indeed.com/viewjob?jk=41b410034d629505</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Senior Software Engineer, Back End &amp; Infrastructure</t>
+          <t>Sr Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EverTune</t>
+          <t>Adobe</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>San Jose, CA, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15.6</v>
+        <v>10</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, LLaMA, Gemini, FastAPI, Docker, CI/CD, Terraform, Git, MongoDB</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, PyTorch, Kubernetes, Python, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,497 +746,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a89b5bd8ec3186a3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Senior Software Engineer, Back End &amp; Infrastructure</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>EverTune</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Seattle, WA, US USA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Generative AI, RAG, LLaMA, Gemini, FastAPI, Docker, CI/CD, Terraform, Git, MongoDB</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=20d3c79a118506ff</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Senior Machine Learning Ops Engineer</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>McKesson</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Irving, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, Azure ML, MLflow, Docker, Kubernetes, CI/CD, Jenkins, Git, Kafka</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=8f8203af416f8f7f</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Remote Senior Applied Machine Learning Engineer - Applied Machine Learning Team</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Redfin</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Seattle, WA, US USA</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Kafka, Python, SQL</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=fc622751927c7ed2</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Software Engineer II, Private Equity Innovation</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Bain &amp; Company</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Dallas, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>RAG, FastAPI, Docker, CI/CD, Git, Python, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=47e66a1132f9e444</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Senior DevOps Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Humana</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>KY, US USA</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>RAG, Copilot, Kubernetes, AKS, CI/CD, GitHub Actions, Terraform, Git, Python, R</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=704f110bc605df6d</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Data Engineer</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Moody's</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>US USA</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Data Scientist, BigQuery, Data Lake, Apache Airflow, CI/CD, Snowflake, Databricks, BigQuery, Python, SQL</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=39ce7a464350b080</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Python Developer: Real-Time Intelligent Communication Systems</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Orlando, FL, US USA</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>LangChain, RAG, FastAPI, Docker, CI/CD, Git, NoSQL, Python, SQL, R</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=dd11c70e06bfae39</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Software Engineer III- Eng</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>UKG</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Alpharetta, GA, US USA</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>RAG, CI/CD, GitHub Actions, Git, Kafka, NoSQL, Python, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=77ed3b95d2fa5e53</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Fullstack Software Engineer (Special Projects Team)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Aeroflow Health</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Asheville, NC, US USA</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>RAG, Prompt Engineering, S3, CI/CD, Terraform, Git, Snowflake, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=61e2c56fc5827763</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Prototype Design Engineer</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Kentik</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>RAG, Prompt Engineering, CI/CD, Jenkins, Git, Kafka, MySQL, Python, SQL, R</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=31841e492a5586d9</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Prototype Design Engineer New</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Kentik</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>RAG, Prompt Engineering, CI/CD, Jenkins, Git, Kafka, MySQL, Python, SQL, R</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=72aa56dd4dca6576</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Senior AI Engineer</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>BillionToOne</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Menlo Park, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>10</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>AI Engineer, RAG, Prompt Engineering, TensorFlow, PyTorch, Python, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=ab7e4e62ffd83084</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Senior Software Test Engineer - Playwright</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Solution Street</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Herndon, VA, US USA</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>10</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>RAG, Copilot, CI/CD, Git, PostgreSQL, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=81515eb20dfb5cb1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Cloud Data Engineer [On-Site, Birmingham]</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Regions Financial</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Hoover, AL, US USA</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>10</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, Glue, CI/CD, Snowflake, Kafka, SQL, R, Optimization</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=3b8c5db12fd158cd</t>
+          <t>https://www.indeed.com/viewjob?jk=2a588910b3c90edf</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-26.xlsx
+++ b/daily_matches/job_matches_2026-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Enterprise AI Architect</t>
+          <t>Software Engineer III - AI/ML</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Radwell International</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Willingboro, NJ, US USA</t>
+          <t>Houston, TX, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.9</v>
+        <v>21.1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI Engineer, LangChain, RAG, Prompt Engineering, Azure ML, Synapse, CI/CD, Git, Databricks, PostgreSQL</t>
+          <t>Data Scientist, LangChain, RAG, LLaMA, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Azure ML, Docker</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,67 +501,67 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=291c96af0e7cea02</t>
+          <t>https://www.indeed.com/viewjob?jk=330acb9fbf425d3a</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Analytics Engineer</t>
+          <t>Senior Data Engineer (Remote in CA)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SRS Distribution</t>
+          <t>First American</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>McKinney, TX, US USA</t>
+          <t>Santa Ana, CA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16.7</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Redshift, BigQuery, Snowflake, BigQuery, Redshift, Hadoop, Tableau, Power BI</t>
+          <t>Generative AI, RAG, Redshift, BigQuery, Data Lake, Docker, Kubernetes, Apache Airflow, Snowflake, Databricks</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e9fcb451d7086751</t>
+          <t>https://www.indeed.com/viewjob?jk=05ccb57abd2eb2be</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Application Developer III, Platform Engineering</t>
+          <t>DevOps &amp; Backend Engineer — Mid/Senior</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Herbalife</t>
+          <t>Open Insurance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Torrance, CA, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16.7</v>
+        <v>20</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, S3, Docker, Kubernetes, CI/CD, Git, PostgreSQL, MySQL, MongoDB, NoSQL</t>
+          <t>RAG, Pinecone, S3, EC2, Docker, Kubernetes, CI/CD, GitHub Actions, Terraform, Git</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=116acc2ab05b269d</t>
+          <t>https://www.indeed.com/viewjob?jk=6691fd82745fd2c9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Engineer, Interactive Voice Response - AI/ML</t>
+          <t>DevOps Software Engineer III</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GEICO</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Plano, TX, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.2</v>
+        <v>17.8</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, NoSQL, Python, SQL, R, Java</t>
+          <t>RAG, S3, EC2, Athena, Redshift, Docker, Kubernetes, Jenkins, Terraform, Redshift</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=47d9b666a9f5e183</t>
+          <t>https://www.indeed.com/viewjob?jk=ae9c515199307b36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior Engineer, Interactive Voice Response - AI/ML</t>
+          <t>Senior Machine Learning Engineer (Remote)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GEICO</t>
+          <t>The Home Depot</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chevy Chase, MD, US USA</t>
+          <t>Atlanta, GA, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.2</v>
+        <v>17.8</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, NoSQL, Python, SQL, R, Java</t>
+          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, Gensim, BigQuery, CI/CD, Git, BigQuery, NoSQL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6901a904c6353295</t>
+          <t>https://www.indeed.com/viewjob?jk=64eeda5b2dfcfe99</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Senior Engineer, Interactive Voice Response - AI/ML</t>
+          <t>Machine Learning Engineer II (Remote)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GEICO</t>
+          <t>The Home Depot</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Palo Alto, CA, US USA</t>
+          <t>Atlanta, GA, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12.2</v>
+        <v>16.7</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, NoSQL, Python, SQL, R, Java</t>
+          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, Gensim, BigQuery, CI/CD, Git, BigQuery, Python</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,32 +676,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e924304b2daed071</t>
+          <t>https://www.indeed.com/viewjob?jk=dd0ef78a415d3113</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Senior Engineer, Interactive Voice Response - AI/ML</t>
+          <t>Software Engineer III - Data Engineering Java/Python</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GEICO</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chevy Chase, MD, US USA</t>
+          <t>Jersey City, NJ, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.2</v>
+        <v>14.4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, NoSQL, Python, SQL, R, Java</t>
+          <t>RAG, Data Lake, CI/CD, Snowflake, Databricks, PySpark, Kafka, NoSQL, Python, SQL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,42 +711,322 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=41b410034d629505</t>
+          <t>https://www.indeed.com/viewjob?jk=5ec8999487afb4f6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sr Machine Learning Engineer</t>
+          <t>Data Engineering Specialist (Hybrid)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Adobe</t>
+          <t>Selective Insurance</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>San Jose, CA, US USA</t>
+          <t>Charlotte, NC, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, RAG, Synapse, Data Lake, Kinesis, CI/CD, Databricks, Kafka, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6bfccdbabce88c5e</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Engineer II</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mutual of Omaha</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e4eee0c9ff41c6e6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Backend &amp; CyberSec Engineer — Mid/Senior</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Open Insurance</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FastAPI, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=01c5cbaeb48f13ea</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Workday</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Boulder, CO, US USA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, Docker, Kubernetes, PySpark, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=cfc72a528e4a243f</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Applied AIML Data Scientist - Associate</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>JPMorganChase</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ, US USA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>10</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Machine Learning Engineer, Generative AI, RAG, PyTorch, Kubernetes, Python, R, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, RAG, TensorFlow, XGBoost, Keras, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=530092c6eae96e74</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Software Engineer III - Data Engineering and MLOps</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>JPMorganChase</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Boston, MA, US USA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RAG, Data Lake, CI/CD, Databricks, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=bf33b7d584ddd74d</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Systematic Production Support Engineer</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Millennium Management</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Miami, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Generative AI, Jenkins, Kafka, PostgreSQL, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>2026-02-25</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=2a588910b3c90edf</t>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=77dbe60d954cf27d</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Senior Automation Enablement Engineer</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Conagra Brands</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Omaha, NE, US USA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>AI Engineer, Generative AI, Copilot, Prompt Engineering, CI/CD, Terraform, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1d83e0839c59ed13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Systematic Production Support Engineer</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Millennium Management</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Generative AI, Jenkins, Kafka, PostgreSQL, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=d69e2a46fbb76bda</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-26.xlsx
+++ b/daily_matches/job_matches_2026-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Software Engineer III - AI/ML</t>
+          <t>Sr Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JPMorganChase</t>
+          <t>Disney Entertainment Television</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Houston, TX, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21.1</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, LangChain, RAG, LLaMA, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Azure ML, Docker</t>
+          <t>Machine Learning Engineer, RAG, PyTorch, BigQuery, Kinesis, MLflow, Docker, Kubernetes, CI/CD, Git</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=330acb9fbf425d3a</t>
+          <t>https://www.indeed.com/viewjob?jk=06c7525b9f402e34</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Data Engineer (Remote in CA)</t>
+          <t>Machine Learning Engineer (171679)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>First American</t>
+          <t>Colgate-Palmolive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Santa Ana, CA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>15.6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Redshift, BigQuery, Data Lake, Docker, Kubernetes, Apache Airflow, Snowflake, Databricks</t>
+          <t>Data Scientist, Machine Learning Engineer, RAG, Docker, Kubernetes, CI/CD, Git, Python, SQL, R</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=05ccb57abd2eb2be</t>
+          <t>https://www.indeed.com/viewjob?jk=7b373595b350ec3d</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DevOps &amp; Backend Engineer — Mid/Senior</t>
+          <t>AI Product Engineer (171682)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Open Insurance</t>
+          <t>Colgate-Palmolive</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, Pinecone, S3, EC2, Docker, Kubernetes, CI/CD, GitHub Actions, Terraform, Git</t>
+          <t>Generative AI, LangChain, RAG, Prompt Engineering, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,462 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6691fd82745fd2c9</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>DevOps Software Engineer III</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>JPMorganChase</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Plano, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>RAG, S3, EC2, Athena, Redshift, Docker, Kubernetes, Jenkins, Terraform, Redshift</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=ae9c515199307b36</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Senior Machine Learning Engineer (Remote)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>The Home Depot</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Atlanta, GA, US USA</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, Gensim, BigQuery, CI/CD, Git, BigQuery, NoSQL</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=64eeda5b2dfcfe99</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Machine Learning Engineer II (Remote)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>The Home Depot</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Atlanta, GA, US USA</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, Gensim, BigQuery, CI/CD, Git, BigQuery, Python</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=dd0ef78a415d3113</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Software Engineer III - Data Engineering Java/Python</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>JPMorganChase</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Jersey City, NJ, US USA</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>RAG, Data Lake, CI/CD, Snowflake, Databricks, PySpark, Kafka, NoSQL, Python, SQL</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=5ec8999487afb4f6</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Data Engineering Specialist (Hybrid)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Selective Insurance</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Charlotte, NC, US USA</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Machine Learning Engineer, RAG, Synapse, Data Lake, Kinesis, CI/CD, Databricks, Kafka, Python, SQL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=6bfccdbabce88c5e</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Engineer II</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Mutual of Omaha</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=e4eee0c9ff41c6e6</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Backend &amp; CyberSec Engineer — Mid/Senior</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Open Insurance</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>FastAPI, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Python, SQL</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=01c5cbaeb48f13ea</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Machine Learning Engineer</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Workday</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Boulder, CO, US USA</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, Docker, Kubernetes, PySpark, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=cfc72a528e4a243f</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Applied AIML Data Scientist - Associate</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>JPMorganChase</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Jersey City, NJ, US USA</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Data Scientist, Machine Learning Engineer, RAG, TensorFlow, XGBoost, Keras, Python, SQL, R</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=530092c6eae96e74</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Software Engineer III - Data Engineering and MLOps</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>JPMorganChase</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Boston, MA, US USA</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>10</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>RAG, Data Lake, CI/CD, Databricks, Python, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=bf33b7d584ddd74d</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Systematic Production Support Engineer</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Millennium Management</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Miami, FL, US USA</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>10</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Generative AI, Jenkins, Kafka, PostgreSQL, Python, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=77dbe60d954cf27d</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Senior Automation Enablement Engineer</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Conagra Brands</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Omaha, NE, US USA</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>AI Engineer, Generative AI, Copilot, Prompt Engineering, CI/CD, Terraform, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=1d83e0839c59ed13</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Systematic Production Support Engineer</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Millennium Management</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>New York, NY, US USA</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>10</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Generative AI, Jenkins, Kafka, PostgreSQL, Python, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=d69e2a46fbb76bda</t>
+          <t>https://www.indeed.com/viewjob?jk=a208fc4aebd38540</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-26.xlsx
+++ b/daily_matches/job_matches_2026-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sr Machine Learning Engineer</t>
+          <t>SAP AI Business Services Consultant</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Disney Entertainment Television</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>28.9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, RAG, PyTorch, BigQuery, Kinesis, MLflow, Docker, Kubernetes, CI/CD, Git</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, ChromaDB, Prompt Engineering, TensorFlow</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,77 +501,1127 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=06c7525b9f402e34</t>
+          <t>https://www.indeed.com/viewjob?jk=855afa7fb01c126c</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer (171679)</t>
+          <t>Sr. Solution Engineer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colgate-Palmolive</t>
+          <t>Associated Wholesale Grocers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Kansas City, KS, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.6</v>
+        <v>21.1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, RAG, Docker, Kubernetes, CI/CD, Git, Python, SQL, R</t>
+          <t>Generative AI, RAG, TensorFlow, Redshift, Synapse, Data Lake, CI/CD, Jenkins, Git, Snowflake</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7b373595b350ec3d</t>
+          <t>https://www.indeed.com/viewjob?jk=3d4780af39e79827</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AI Product Engineer (171682)</t>
+          <t>SAP AI Business Services Consultant</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colgate-Palmolive</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, Prompt Engineering, TensorFlow, PyTorch, S3, FastAPI, Docker</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=fc1052fb6437c3a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Data Scientist (Sales Operations)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, RAG, TensorFlow, PyTorch, XGBoost, Git, Snowflake, Hadoop, Matplotlib</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=506011de1638db28</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SAP AI Business Services Consultant</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=0af8e0a8fd7fda43</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SAP AI Business Services Consultant</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>AI Engineer, Generative AI, LangChain, RAG, LLaMA, Hugging Face, Prompt Engineering, TensorFlow, PyTorch, CI/CD</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=103106feced3f202</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SAP AI Business Services Consultant</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, RAG, TensorFlow, PyTorch, MLflow, Docker, Kubernetes, Snowflake, Python</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a89713d6b6038acb</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI Engineer - Pentesting Agent</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>mLabs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>AI Engineer, LangChain, RAG, LLaMA, Mistral, Prompt Engineering, Docker, NoSQL, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=74410c852ca50952</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Senior Backend Software Engineer (HPC/AI &amp; Distributed Systems)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RAG, FastAPI, Docker, Kubernetes, Jenkins, GitHub Actions, Git, NoSQL, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=dce54831329652c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI/ML Intern - Generative AI &amp; Intelligent Systems</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ensora Health</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Jacksonville, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, TensorFlow, PyTorch, GCP Vertex AI, PostgreSQL, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=735aaf83f3d34071</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Senior ML/AI DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Santa Clara, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Python, R</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=53f52829c15306a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI /ML CPU System Validation Architect</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>RAG, TensorFlow, PyTorch, spaCy, NLTK, CI/CD, NoSQL, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7c7d6a617f77a098</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sr. Software Engineer</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Rakuten Global</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>New York, NY, US USA</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RAG, Docker, Kubernetes, CI/CD, Git, Kafka, MySQL, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7d2b8193229ae798</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SAP AI Business Services Consultant</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Python, R, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=46771ca9d090526d</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI Solutions Architect / Field Application Engineer</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>RAG, Hugging Face, TensorFlow, PyTorch, Docker, Kubernetes, Python, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=8fe6aa1f256a0b11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI Solutions Architect / Field Application Engineer (FAE)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>RAG, Hugging Face, TensorFlow, PyTorch, Docker, Kubernetes, Python, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=11035a911316952a</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Software Development Engineer – Distributed Inference</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>RAG, LLaMA, Kubernetes, CI/CD, Jenkins, Git, Python, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=0db88b644f55a838</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Senior Software Development Engineer – Distributed Inference</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Santa Clara, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>RAG, LLaMA, Kubernetes, CI/CD, Jenkins, Git, Python, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=982f88d7ca06cd80</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI Infrastructure Engineer – Slurm Platform</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>San Jose, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>RAG, PyTorch, Kubernetes, CI/CD, Terraform, Git, Python, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b0b69710d324af0f</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Senior AI Engineer</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>UniFiX Technology</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Neenah, WI, US USA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>10</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Generative AI, LangChain, RAG, Prompt Engineering, Python, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=a208fc4aebd38540</t>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>AI Engineer, RAG, LLaMA, TensorFlow, PyTorch, Python, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=cee0666e130ede13</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cloud Platform Engineer</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Insight</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git, R</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=69f5a4eab643290f</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Silicon Verification Infrastructure Engineer</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, CI/CD, Jenkins, Git, MySQL, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=8712ab948b9a56b1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI Models MAD - Model Automation and Dashboarding</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Santa Clara, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>RAG, TensorFlow, PyTorch, Docker, CI/CD, Git, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=5cfae6df8175f3c7</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ML/AI Engineer</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>AI Engineer, RAG, TensorFlow, PyTorch, NoSQL, Python, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1834627b6c80bd72</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026 PhD Artificial Intelligence Models Software Engineer Co-Op/Intern</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>San Jose, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>AI Engineer, Data Scientist, Generative AI, RAG, TensorFlow, PyTorch, Python, R, Optimization</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=57d4929df4fd3403</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2026 PhD Software Engineering Intern/Co-op</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>San Jose, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>RAG, Git, PostgreSQL, MySQL, MongoDB, Python, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=84f705dededf77a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2026 Undergrad Software Engineering Intern/Co-op</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>San Jose, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>RAG, Git, PostgreSQL, MySQL, MongoDB, Python, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=89b23f4a905d357b</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2026 Masters Software Engineering Intern/Co-op</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>San Jose, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>RAG, Git, PostgreSQL, MySQL, MongoDB, Python, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=3f786c76506fd367</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2026 Masters Software Engineering Intern/Co-op</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>RAG, Git, PostgreSQL, MySQL, MongoDB, Python, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a6c395e37fdd38a1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2026 Undergrad Software Engineering Intern/Co-op</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>RAG, Git, PostgreSQL, MySQL, MongoDB, Python, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=47d49e0a865689f6</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>The Friedkin Group</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Houston, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>RAG, Synapse, Dataflow, CI/CD, Git, Power BI, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f7ede0f34ce25b71</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SAP AI Business Services Consultant</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>TensorFlow, PyTorch, Git, MySQL, Python, SQL, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b5ded9e52f396b69</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SAP AI Business Services Consultant</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Prompt Engineering, FastAPI, CI/CD, Jenkins, Git, PostgreSQL, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7574cb3deaaab11f</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-26.xlsx
+++ b/daily_matches/job_matches_2026-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAP AI Business Services Consultant</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Royal Caribbean Group</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Miami, FL, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28.9</v>
+        <v>26.7</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, ChromaDB, Prompt Engineering, TensorFlow</t>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, Hugging Face, TensorFlow, PyTorch, XGBoost, LightGBM, spaCy, Azure ML</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=855afa7fb01c126c</t>
+          <t>https://www.indeed.com/viewjob?jk=b5df4e674559910e</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sr. Solution Engineer</t>
+          <t>Senior Machine Learning Engineer, Shield</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Associated Wholesale Grocers</t>
+          <t>Box</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kansas City, KS, US USA</t>
+          <t>Redwood City, CA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, TensorFlow, Redshift, Synapse, Data Lake, CI/CD, Jenkins, Git, Snowflake</t>
+          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, AWS SageMaker, Azure ML, BigQuery, Dataflow, Kubernetes, BigQuery</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3d4780af39e79827</t>
+          <t>https://www.indeed.com/viewjob?jk=88492e295288a867</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SAP AI Business Services Consultant</t>
+          <t>Software Development Engineer I</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Seattle, WA, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21.1</v>
+        <v>14.4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Generative AI, LangChain, RAG, LLaMA, Prompt Engineering, TensorFlow, PyTorch, S3, FastAPI, Docker</t>
+          <t>RAG, S3, EC2, Docker, Kubernetes, CI/CD, Terraform, Git, NoSQL, Python</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,19 +571,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fc1052fb6437c3a3</t>
+          <t>https://www.indeed.com/viewjob?jk=79a97f6710d73548</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Data Scientist (Sales Operations)</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>SpyCloud</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,46 +592,46 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17.8</v>
+        <v>12.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, RAG, TensorFlow, PyTorch, XGBoost, Git, Snowflake, Hadoop, Matplotlib</t>
+          <t>RAG, EC2, Docker, GitHub Actions, Terraform, Git, PostgreSQL, MySQL, NoSQL, SQL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=506011de1638db28</t>
+          <t>https://www.indeed.com/viewjob?jk=1b7f8d62e370d21c</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SAP AI Business Services Consultant</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>YO IT CONSULTING</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16.7</v>
+        <v>12.2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Generative AI, LangChain, RAG, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD</t>
+          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0af8e0a8fd7fda43</t>
+          <t>https://www.indeed.com/viewjob?jk=48d07ec6a1c2f002</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SAP AI Business Services Consultant</t>
+          <t>Sr. Software Engineer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Rakuten International</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14.4</v>
+        <v>12.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, LLaMA, Hugging Face, Prompt Engineering, TensorFlow, PyTorch, CI/CD</t>
+          <t>RAG, Docker, Kubernetes, CI/CD, Git, Kafka, MySQL, SQL, R, Java</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,32 +676,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=103106feced3f202</t>
+          <t>https://www.indeed.com/viewjob?jk=160635fcd123b36f</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SAP AI Business Services Consultant</t>
+          <t>ML Specialist</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Qode</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Township of Jackson, NJ, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14.4</v>
+        <v>11.1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, RAG, TensorFlow, PyTorch, MLflow, Docker, Kubernetes, Snowflake, Python</t>
+          <t>AI Engineer, Data Scientist, Machine Learning Engineer, MLflow, Docker, Kubernetes, CI/CD, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,19 +711,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a89713d6b6038acb</t>
+          <t>https://www.indeed.com/viewjob?jk=773b79b33b2b652e</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AI Engineer - Pentesting Agent</t>
+          <t>Database Engineer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>mLabs</t>
+          <t>Chess.com</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -732,11 +732,11 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AI Engineer, LangChain, RAG, LLaMA, Mistral, Prompt Engineering, Docker, NoSQL, Python, SQL</t>
+          <t>RAG, Kubernetes, Terraform, MySQL, Cassandra, Python, SQL, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,67 +746,67 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=74410c852ca50952</t>
+          <t>https://www.indeed.com/viewjob?jk=ada1c920f207c639</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Senior Backend Software Engineer (HPC/AI &amp; Distributed Systems)</t>
+          <t>Senior Machine Learning Engineer (3968)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>GBG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>Manchester, NH, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RAG, FastAPI, Docker, Kubernetes, Jenkins, GitHub Actions, Git, NoSQL, Python, SQL</t>
+          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, OpenCV, CI/CD, Git, Python, R, Scala</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=dce54831329652c4</t>
+          <t>https://www.indeed.com/viewjob?jk=5ec8770667badf2d</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AI/ML Intern - Generative AI &amp; Intelligent Systems</t>
+          <t>Senior Machine Learning Engineer (3967)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ensora Health</t>
+          <t>GBG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jacksonville, FL, US USA</t>
+          <t>Atlanta, GA, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Generative AI, LangChain, RAG, LLaMA, TensorFlow, PyTorch, GCP Vertex AI, PostgreSQL, Python, SQL</t>
+          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, OpenCV, CI/CD, Git, Python, R, Scala</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,102 +816,102 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=735aaf83f3d34071</t>
+          <t>https://www.indeed.com/viewjob?jk=fde010a5eed111e6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Senior ML/AI DevOps Engineer</t>
+          <t>Sr Data Scientist - Mar Tech (Applied ML, Recommender Systems, Reinforcement Learning)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Santa Clara, CA, US USA</t>
+          <t>Brooklyn Park, MN, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Python, R</t>
+          <t>Data Scientist, RAG, CI/CD, PySpark, Hadoop, Python, R, Java, Scala, Optimization</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=53f52829c15306a3</t>
+          <t>https://www.indeed.com/viewjob?jk=ac1a396f36397961</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AI /ML CPU System Validation Architect</t>
+          <t>ML Platform Engineer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Afresh</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RAG, TensorFlow, PyTorch, spaCy, NLTK, CI/CD, NoSQL, Python, SQL, R</t>
+          <t>Data Scientist, Machine Learning Engineer, RAG, Databricks, PySpark, Python, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7c7d6a617f77a098</t>
+          <t>https://www.indeed.com/viewjob?jk=ebfe5376f2d39b14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sr. Software Engineer</t>
+          <t>Software Engineer (C/C++) - Viasat Government</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rakuten Global</t>
+          <t>Viasat</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Duluth, GA, US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Git, Kafka, MySQL, SQL, R, Java</t>
+          <t>RAG, Copilot, Docker, CI/CD, Git, Python, R, Java, C++</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7d2b8193229ae798</t>
+          <t>https://www.indeed.com/viewjob?jk=14cf9cbd816ad192</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SAP AI Business Services Consultant</t>
+          <t>Sr. Node JS Developer – R01561357</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Brillio LLC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>St. Louis, MO, US USA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Python, R, Scala, A/B Testing</t>
+          <t>Generative AI, RAG, Docker, Kubernetes, CI/CD, Git, SQL, R, Java</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -956,672 +956,77 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=46771ca9d090526d</t>
+          <t>https://www.indeed.com/viewjob?jk=53c2ccb18d6d41e3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AI Solutions Architect / Field Application Engineer</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Adobe</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>San Jose, CA, US USA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RAG, Hugging Face, TensorFlow, PyTorch, Docker, Kubernetes, Python, R, Scala, Optimization</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, TensorFlow, PyTorch, CI/CD, Python, R, Scala</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8fe6aa1f256a0b11</t>
+          <t>https://www.indeed.com/viewjob?jk=60720148c44c7f1d</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AI Solutions Architect / Field Application Engineer (FAE)</t>
+          <t>Associate Data Scientist - Tools &amp; Automation</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>The Home Depot</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>Atlanta, GA, US USA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RAG, Hugging Face, TensorFlow, PyTorch, Docker, Kubernetes, Python, R, Scala, Optimization</t>
+          <t>Data Scientist, RAG, BigQuery, BigQuery, Tableau, Python, SQL, R, Optimization</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=11035a911316952a</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Software Development Engineer – Distributed Inference</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Austin, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>RAG, LLaMA, Kubernetes, CI/CD, Jenkins, Git, Python, R, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=0db88b644f55a838</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Senior Software Development Engineer – Distributed Inference</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Santa Clara, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>RAG, LLaMA, Kubernetes, CI/CD, Jenkins, Git, Python, R, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=982f88d7ca06cd80</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI Infrastructure Engineer – Slurm Platform</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>San Jose, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>RAG, PyTorch, Kubernetes, CI/CD, Terraform, Git, Python, R, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2025-10-24</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=b0b69710d324af0f</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Senior AI Engineer</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>UniFiX Technology</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Neenah, WI, US USA</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>10</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>AI Engineer, RAG, LLaMA, TensorFlow, PyTorch, Python, R, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=cee0666e130ede13</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Cloud Platform Engineer</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Insight</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>10</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git, R</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2026-02-18</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=69f5a4eab643290f</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Silicon Verification Infrastructure Engineer</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Austin, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>10</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>RAG, Copilot, CI/CD, Jenkins, Git, MySQL, Python, SQL, R</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=8712ab948b9a56b1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI Models MAD - Model Automation and Dashboarding</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Santa Clara, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>10</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>RAG, TensorFlow, PyTorch, Docker, CI/CD, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2026-02-11</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=5cfae6df8175f3c7</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ML/AI Engineer</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Austin, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>10</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>AI Engineer, RAG, TensorFlow, PyTorch, NoSQL, Python, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=1834627b6c80bd72</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2026 PhD Artificial Intelligence Models Software Engineer Co-Op/Intern</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>San Jose, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>10</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>AI Engineer, Data Scientist, Generative AI, RAG, TensorFlow, PyTorch, Python, R, Optimization</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=57d4929df4fd3403</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2026 PhD Software Engineering Intern/Co-op</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>San Jose, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>10</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>RAG, Git, PostgreSQL, MySQL, MongoDB, Python, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=84f705dededf77a4</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2026 Undergrad Software Engineering Intern/Co-op</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>San Jose, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>10</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>RAG, Git, PostgreSQL, MySQL, MongoDB, Python, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=89b23f4a905d357b</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2026 Masters Software Engineering Intern/Co-op</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>San Jose, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>10</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>RAG, Git, PostgreSQL, MySQL, MongoDB, Python, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=3f786c76506fd367</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2026 Masters Software Engineering Intern/Co-op</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Austin, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>10</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>RAG, Git, PostgreSQL, MySQL, MongoDB, Python, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=a6c395e37fdd38a1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2026 Undergrad Software Engineering Intern/Co-op</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Austin, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>10</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>RAG, Git, PostgreSQL, MySQL, MongoDB, Python, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=47d49e0a865689f6</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Data Engineer</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>The Friedkin Group</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Houston, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>10</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>RAG, Synapse, Dataflow, CI/CD, Git, Power BI, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=f7ede0f34ce25b71</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>SAP AI Business Services Consultant</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Openkyber</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>AK, US USA</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>10</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>TensorFlow, PyTorch, Git, MySQL, Python, SQL, R, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=b5ded9e52f396b69</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>SAP AI Business Services Consultant</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Openkyber</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>AK, US USA</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>10</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Prompt Engineering, FastAPI, CI/CD, Jenkins, Git, PostgreSQL, Python, SQL, R</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=7574cb3deaaab11f</t>
+          <t>https://www.indeed.com/viewjob?jk=d0e0e254129b01e7</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-26.xlsx
+++ b/daily_matches/job_matches_2026-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,60 +473,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Senior AI Engineer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Royal Caribbean Group</t>
+          <t>NTT DATA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Miami, FL, US USA</t>
+          <t>MO, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>26.7</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, Generative AI, Hugging Face, TensorFlow, PyTorch, XGBoost, LightGBM, spaCy, Azure ML</t>
+          <t>AI Engineer, RAG, Hugging Face, TensorFlow, PyTorch, MLflow, Docker, Kubernetes, CI/CD, Databricks</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b5df4e674559910e</t>
+          <t>https://www.indeed.com/viewjob?jk=74494a10316e7fe4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Machine Learning Engineer, Shield</t>
+          <t>Product Engineer, Partnerships</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Box</t>
+          <t>Replit</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Redwood City, CA, US USA</t>
+          <t>Foster City, CA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15.6</v>
+        <v>13.3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, AWS SageMaker, Azure ML, BigQuery, Dataflow, Kubernetes, BigQuery</t>
+          <t>RAG, Docker, Kubernetes, CI/CD, Git, NoSQL, Python, SQL, R, Java</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=88492e295288a867</t>
+          <t>https://www.indeed.com/viewjob?jk=b40a810716931b39</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Software Development Engineer I</t>
+          <t>Advanced Analytics &amp; Research Specialist</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>Great American Insurance Group</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Seattle, WA, US USA</t>
+          <t>Cincinnati, OH, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.4</v>
+        <v>13.3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, S3, EC2, Docker, Kubernetes, CI/CD, Terraform, Git, NoSQL, Python</t>
+          <t>LangChain, RAG, TensorFlow, PyTorch, Docker, Kubernetes, Git, NoSQL, Python, SQL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=79a97f6710d73548</t>
+          <t>https://www.indeed.com/viewjob?jk=36d846664ec2afaa</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>AI Engineer - Pentesting Agent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SpyCloud</t>
+          <t>mLabs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12.2</v>
+        <v>13.3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, EC2, Docker, GitHub Actions, Terraform, Git, PostgreSQL, MySQL, NoSQL, SQL</t>
+          <t>AI Engineer, LangChain, RAG, LLaMA, Mistral, Prompt Engineering, Docker, NoSQL, Python, SQL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,24 +606,24 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1b7f8d62e370d21c</t>
+          <t>https://www.indeed.com/viewjob?jk=0c2c1f75fb7cbcf1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Senior Data Scientist, Model Risk &amp; Data Analytics, Internal Audit - AMS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>YO IT CONSULTING</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Los Angeles, CA, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Data Scientist, BigQuery, Snowflake, BigQuery, Polars, Python, SQL, R, Scala, Bayesian</t>
+          <t>Data Scientist, Machine Learning Engineer, RAG, Hugging Face, TensorFlow, PyTorch, Snowflake, Hadoop, Python, SQL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=48d07ec6a1c2f002</t>
+          <t>https://www.indeed.com/viewjob?jk=92cc4b6029f148ce</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sr. Software Engineer</t>
+          <t>AI Engineer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rakuten International</t>
+          <t>Sutter Health</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Git, Kafka, MySQL, SQL, R, Java</t>
+          <t>AI Engineer, Data Scientist, Azure ML, AKS, CI/CD, GitHub Actions, Git, Python, R, Scala</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,24 +676,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=160635fcd123b36f</t>
+          <t>https://www.indeed.com/viewjob?jk=9e4eb366f4273b09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ML Specialist</t>
+          <t>Sr Systems Engineer HPC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Qode</t>
+          <t>Shell Deutschland GmbH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Township of Jackson, NJ, US USA</t>
+          <t>Houston, TX, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Machine Learning Engineer, MLflow, Docker, Kubernetes, CI/CD, R, Scala, Optimization</t>
+          <t>RAG, Kubernetes, Terraform, Git, MySQL, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,24 +711,24 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=773b79b33b2b652e</t>
+          <t>https://www.indeed.com/viewjob?jk=5bfbf48ad7eaa68f</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Database Engineer</t>
+          <t>Senior Machine Learning Engineer (3968)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chess.com</t>
+          <t>GBG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Manchester, NH, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RAG, Kubernetes, Terraform, MySQL, Cassandra, Python, SQL, R, Scala, Optimization</t>
+          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, OpenCV, CI/CD, Git, Python, R, Scala</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,14 +746,14 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ada1c920f207c639</t>
+          <t>https://www.indeed.com/viewjob?jk=89205bee7c86a7c6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Senior Machine Learning Engineer (3968)</t>
+          <t>Senior Machine Learning Engineer (3967)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Manchester, NH, US USA</t>
+          <t>Atlanta, GA, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -781,24 +781,24 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5ec8770667badf2d</t>
+          <t>https://www.indeed.com/viewjob?jk=e7823ff71e745e06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Senior Machine Learning Engineer (3967)</t>
+          <t>ML Specialist</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GBG</t>
+          <t>Qode</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atlanta, GA, US USA</t>
+          <t>Township of Jackson, NJ, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -806,7 +806,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, OpenCV, CI/CD, Git, Python, R, Scala</t>
+          <t>AI Engineer, Data Scientist, Machine Learning Engineer, MLflow, Docker, Kubernetes, CI/CD, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,59 +816,59 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fde010a5eed111e6</t>
+          <t>https://www.indeed.com/viewjob?jk=c8381f2ad4c0a551</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sr Data Scientist - Mar Tech (Applied ML, Recommender Systems, Reinforcement Learning)</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Brooklyn Park, MN, US USA</t>
+          <t>Austin, TX, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, CI/CD, PySpark, Hadoop, Python, R, Java, Scala, Optimization</t>
+          <t>Data Scientist, Generative AI, RAG, Apache Airflow, CI/CD, Git, PySpark, Python, R</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ac1a396f36397961</t>
+          <t>https://www.indeed.com/viewjob?jk=30bfe0386d00f02d</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ML Platform Engineer</t>
+          <t>Senior Data Engineer with AI/ML Focus</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Afresh</t>
+          <t>Tata Consultancy Services (TCS)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Sunnyvale, CA, US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -876,7 +876,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, RAG, Databricks, PySpark, Python, R, Scala, Optimization</t>
+          <t>RAG, Prompt Engineering, S3, Python, SQL, R, Java, Scala, Optimization</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -886,24 +886,24 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ebfe5376f2d39b14</t>
+          <t>https://www.indeed.com/viewjob?jk=4d0fc0f491c9f4bb</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Software Engineer (C/C++) - Viasat Government</t>
+          <t>Business Intelligence Engineer - Military Veterans Encouraged To Apply</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Viasat</t>
+          <t>HMP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Duluth, GA, US USA</t>
+          <t>Malvern, PA, US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -911,7 +911,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Docker, CI/CD, Git, Python, R, Java, C++</t>
+          <t>RAG, CI/CD, Git, Snowflake, Power BI, SQL, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -921,24 +921,24 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=14cf9cbd816ad192</t>
+          <t>https://www.indeed.com/viewjob?jk=377abe3e0b30c197</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sr. Node JS Developer – R01561357</t>
+          <t>Intermediate Data Engineer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Brillio LLC</t>
+          <t>Progressive</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>St. Louis, MO, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -946,7 +946,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Docker, Kubernetes, CI/CD, Git, SQL, R, Java</t>
+          <t>S3, CI/CD, Jenkins, Snowflake, Python, SQL, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -956,77 +956,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=53c2ccb18d6d41e3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Machine Learning Engineer</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Adobe</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>San Jose, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Machine Learning Engineer, Generative AI, RAG, TensorFlow, PyTorch, CI/CD, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=60720148c44c7f1d</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Associate Data Scientist - Tools &amp; Automation</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>The Home Depot</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Atlanta, GA, US USA</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>10</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, BigQuery, BigQuery, Tableau, Python, SQL, R, Optimization</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=d0e0e254129b01e7</t>
+          <t>https://www.indeed.com/viewjob?jk=6b465e27586b38fb</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-26.xlsx
+++ b/daily_matches/job_matches_2026-02-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,60 +473,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senior AI Engineer</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NTT DATA</t>
+          <t>Advita Ortho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MO, US USA</t>
+          <t>Gainesville, FL, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>17.8</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI Engineer, RAG, Hugging Face, TensorFlow, PyTorch, MLflow, Docker, Kubernetes, CI/CD, Databricks</t>
+          <t>RAG, Gemini, Hugging Face, Pinecone, ChromaDB, Prompt Engineering, TensorFlow, PyTorch, AWS SageMaker, Azure ML</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=74494a10316e7fe4</t>
+          <t>https://www.indeed.com/viewjob?jk=88f54ab0bf4b2002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Product Engineer, Partnerships</t>
+          <t>Senior Software Engineer, LLMs</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Replit</t>
+          <t>Upstart</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Foster City, CA, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.3</v>
+        <v>16.7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Git, NoSQL, Python, SQL, R, Java</t>
+          <t>Generative AI, LangChain, RAG, LLaMA, FAISS, Pinecone, Prompt Engineering, FastAPI, Docker, Kubernetes</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b40a810716931b39</t>
+          <t>https://www.indeed.com/viewjob?jk=948dde4732205d6f</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Advanced Analytics &amp; Research Specialist</t>
+          <t>AI DevOps Engineer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Great American Insurance Group</t>
+          <t>Reef Capital Partners</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cincinnati, OH, US USA</t>
+          <t>Lehi, UT, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LangChain, RAG, TensorFlow, PyTorch, Docker, Kubernetes, Git, NoSQL, Python, SQL</t>
+          <t>LangChain, RAG, S3, Data Lake, AKS, CI/CD, GitHub Actions, Terraform, Git, Snowflake</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=36d846664ec2afaa</t>
+          <t>https://www.indeed.com/viewjob?jk=1e695ed23053b341</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AI Engineer - Pentesting Agent</t>
+          <t>Senior Python Backend Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mLabs</t>
+          <t>Sustainability Engineering Group</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Phoenix, AZ, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.3</v>
+        <v>15.6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AI Engineer, LangChain, RAG, LLaMA, Mistral, Prompt Engineering, Docker, NoSQL, Python, SQL</t>
+          <t>LangChain, RAG, LLaMA, Pinecone, FastAPI, Docker, CI/CD, GitHub Actions, Git, PostgreSQL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0c2c1f75fb7cbcf1</t>
+          <t>https://www.indeed.com/viewjob?jk=44862ba6d8cffad9</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior Data Scientist, Model Risk &amp; Data Analytics, Internal Audit - AMS</t>
+          <t>Data Scientist II</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TikTok</t>
+          <t>Avathon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, US USA</t>
+          <t>Pleasanton, CA, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.2</v>
+        <v>14.4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, RAG, Hugging Face, TensorFlow, PyTorch, Snowflake, Hadoop, Python, SQL</t>
+          <t>Data Scientist, Generative AI, RAG, Hugging Face, Prompt Engineering, TensorFlow, PyTorch, CI/CD, Git, Python</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=92cc4b6029f148ce</t>
+          <t>https://www.indeed.com/viewjob?jk=2b79f4ac6055475e</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AI Engineer</t>
+          <t>Data Scientist I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sutter Health</t>
+          <t>Avathon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Pleasanton, CA, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Azure ML, AKS, CI/CD, GitHub Actions, Git, Python, R, Scala</t>
+          <t>Data Scientist, Generative AI, RAG, Hugging Face, Prompt Engineering, TensorFlow, PyTorch, Git, Python, R</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,24 +676,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9e4eb366f4273b09</t>
+          <t>https://www.indeed.com/viewjob?jk=81f56a55e57fefe0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sr Systems Engineer HPC</t>
+          <t>Senior Software Engineer (Java Full stack)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Shell Deutschland GmbH</t>
+          <t>Optum</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Houston, TX, US USA</t>
+          <t>Raleigh, NC, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RAG, Kubernetes, Terraform, Git, MySQL, Python, SQL, R, Java, Scala</t>
+          <t>Docker, Kubernetes, CI/CD, Terraform, Git, Kafka, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,24 +711,24 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5bfbf48ad7eaa68f</t>
+          <t>https://www.indeed.com/viewjob?jk=3fb41469a6c6781d</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Senior Machine Learning Engineer (3968)</t>
+          <t>Sr Systems Engineer HPC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GBG</t>
+          <t>Shell</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Manchester, NH, US USA</t>
+          <t>Houston, TX, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, OpenCV, CI/CD, Git, Python, R, Scala</t>
+          <t>RAG, Kubernetes, Terraform, Git, MySQL, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,24 +746,24 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=89205bee7c86a7c6</t>
+          <t>https://www.indeed.com/viewjob?jk=19f6be6779a46e20</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Senior Machine Learning Engineer (3967)</t>
+          <t>Sr Systems Engineer HPC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GBG</t>
+          <t>Shell</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atlanta, GA, US USA</t>
+          <t>Houston, TX, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, RAG, TensorFlow, PyTorch, OpenCV, CI/CD, Git, Python, R, Scala</t>
+          <t>RAG, Kubernetes, Terraform, Git, MySQL, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,32 +781,32 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e7823ff71e745e06</t>
+          <t>https://www.indeed.com/viewjob?jk=23f4372fe821834a</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ML Specialist</t>
+          <t>Machine Learning Engineer, GenAI Technology</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Qode</t>
+          <t>Point72</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Township of Jackson, NJ, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Machine Learning Engineer, MLflow, Docker, Kubernetes, CI/CD, R, Scala, Optimization</t>
+          <t>Data Scientist, Machine Learning Engineer, RAG, TensorFlow, PyTorch, Python, R, Java, Scala</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,24 +816,24 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c8381f2ad4c0a551</t>
+          <t>https://www.indeed.com/viewjob?jk=cdf2b548f7a10938</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Senior Data Engineer</t>
+          <t>Data Engineer I (Databricks, MLOps)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Travelers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>Hartford, CT, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -841,7 +841,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, RAG, Apache Airflow, CI/CD, Git, PySpark, Python, R</t>
+          <t>Generative AI, RAG, MLflow, CI/CD, GitHub Actions, Terraform, Git, Databricks, R</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -851,24 +851,24 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=30bfe0386d00f02d</t>
+          <t>https://www.indeed.com/viewjob?jk=a78961dd1a5a17bd</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Senior Data Engineer with AI/ML Focus</t>
+          <t>AI Search Engineer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services (TCS)</t>
+          <t>NTT DATA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sunnyvale, CA, US USA</t>
+          <t>Plano, TX, US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -876,34 +876,34 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RAG, Prompt Engineering, S3, Python, SQL, R, Java, Scala, Optimization</t>
+          <t>FastAPI, Docker, Kubernetes, AKS, CI/CD, Git, Python, R, Scala</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4d0fc0f491c9f4bb</t>
+          <t>https://www.indeed.com/viewjob?jk=c988bd7e23d852be</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Business Intelligence Engineer - Military Veterans Encouraged To Apply</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HMP</t>
+          <t>DocuSign</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Malvern, PA, US USA</t>
+          <t>Seattle, WA, US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -911,7 +911,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RAG, CI/CD, Git, Snowflake, Power BI, SQL, R, Scala, Optimization</t>
+          <t>Machine Learning Engineer, Generative AI, Docker, Kubernetes, CI/CD, Git, Python, SQL, R</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -921,42 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=377abe3e0b30c197</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Intermediate Data Engineer</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Progressive</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>10</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>S3, CI/CD, Jenkins, Snowflake, Python, SQL, R, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=6b465e27586b38fb</t>
+          <t>https://www.indeed.com/viewjob?jk=ce91aa193829c9fd</t>
         </is>
       </c>
     </row>
